--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,7 +1261,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>10857521</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10552842</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,7 +2108,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>13388640</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>13154826</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2939,7 +2955,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3688257</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3595214</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3778,7 +3802,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>999616</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>966518</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +3824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4617,7 +4649,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1745167</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1680539</v>
       </c>
     </row>
   </sheetData>
@@ -4631,7 +4671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5456,7 +5496,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1993502</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1922956</v>
       </c>
     </row>
   </sheetData>
@@ -5470,7 +5518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6295,7 +6343,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>290190</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>290333</v>
       </c>
     </row>
   </sheetData>
@@ -6309,7 +6365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7134,7 +7190,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>335932</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>319989</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,6 +1272,22 @@
         <v>10552842</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10558528</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1283,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,6 +2135,22 @@
         <v>13154826</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>14243367</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2130,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2966,6 +2998,22 @@
         <v>3595214</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3534238</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2977,7 +3025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,6 +3861,22 @@
         <v>966518</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>996050</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3824,7 +3888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4660,6 +4724,22 @@
         <v>1680539</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1616520</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4671,7 +4751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5507,6 +5587,22 @@
         <v>1922956</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1917123</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5518,7 +5614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6354,6 +6450,22 @@
         <v>290333</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>302352</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6365,7 +6477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7201,6 +7313,22 @@
         <v>319989</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>302009</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,7 +1285,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>10330162</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10684685</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11033960</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10883200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10769447</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>10121585</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,7 +2188,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>13831084</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>14607791</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>14548260</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>14410223</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>14120461</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11744953</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,7 +3091,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>3419631</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3428991</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3666127</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3656561</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3625031</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3437693</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3874,7 +3994,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>997504</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1047257</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1048409</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1008852</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1057005</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>991615</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +4048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4737,7 +4897,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1538375</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1555025</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1642945</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1624142</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1624112</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1525563</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5600,7 +5800,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1762113</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1744502</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1883229</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1904385</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1940920</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1800878</v>
       </c>
     </row>
   </sheetData>
@@ -5614,7 +5854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6463,7 +6703,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>284818</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>299301</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>305333</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>302312</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>309523</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>301426</v>
       </c>
     </row>
   </sheetData>
@@ -6477,7 +6757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7326,7 +7606,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>288357</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>321156</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>339672</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>341932</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>337354</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>321920</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,6 +1328,14 @@
         <v>10121585</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>10326406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1339,7 +1347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2231,6 +2239,14 @@
         <v>11744953</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>12681718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2242,7 +2258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3134,6 +3150,14 @@
         <v>3437693</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3338945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3145,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4037,6 +4061,14 @@
         <v>991615</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>968608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4048,7 +4080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4940,6 +4972,14 @@
         <v>1525563</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1561914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4951,7 +4991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5843,6 +5883,14 @@
         <v>1800878</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1773932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5854,7 +5902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6746,6 +6794,14 @@
         <v>301426</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>295411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6757,7 +6813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7649,6 +7705,14 @@
         <v>321920</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>315488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,6 +1336,14 @@
         <v>10326406</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9963270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1347,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,6 +2255,14 @@
         <v>12681718</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11784018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2258,7 +2274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3158,6 +3174,14 @@
         <v>3338945</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3155093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3169,7 +3193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,6 +4093,14 @@
         <v>968608</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>930751</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4080,7 +4112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4980,6 +5012,14 @@
         <v>1561914</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1527945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4991,7 +5031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5891,6 +5931,14 @@
         <v>1773932</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1657364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5902,7 +5950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6802,6 +6850,14 @@
         <v>295411</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>278993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6813,7 +6869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7713,6 +7769,14 @@
         <v>315488</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>296586</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,6 +1344,14 @@
         <v>9963270</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9881881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1355,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,6 +2271,14 @@
         <v>11784018</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11707548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2274,7 +2290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3182,6 +3198,14 @@
         <v>3155093</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3156419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3193,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,6 +4125,14 @@
         <v>930751</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>918046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4112,7 +4144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5020,6 +5052,14 @@
         <v>1527945</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1447776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5031,7 +5071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5939,6 +5979,14 @@
         <v>1657364</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1651067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5950,7 +5998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6858,6 +6906,14 @@
         <v>278993</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>262918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6869,7 +6925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7777,6 +7833,14 @@
         <v>296586</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>296283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,6 +1352,14 @@
         <v>9881881</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>10509209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1363,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2279,6 +2287,14 @@
         <v>11707548</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>12048420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2290,7 +2306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3206,6 +3222,14 @@
         <v>3156419</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3184675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3217,7 +3241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4133,6 +4157,14 @@
         <v>918046</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>912953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4144,7 +4176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5060,6 +5092,14 @@
         <v>1447776</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1434281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5071,7 +5111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5987,6 +6027,14 @@
         <v>1651067</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1754798</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5998,7 +6046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6914,6 +6962,14 @@
         <v>262918</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>259801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6925,7 +6981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7841,6 +7897,14 @@
         <v>296283</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>299347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1360,6 +1360,14 @@
         <v>10509209</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9902289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1371,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,6 +2303,14 @@
         <v>12048420</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>10967328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2306,7 +2322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3230,6 +3246,14 @@
         <v>3184675</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3053215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3241,7 +3265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4165,6 +4189,14 @@
         <v>912953</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>854700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4176,7 +4208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5100,6 +5132,14 @@
         <v>1434281</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1408656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5111,7 +5151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6035,6 +6075,14 @@
         <v>1754798</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1696252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6046,7 +6094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6970,6 +7018,14 @@
         <v>259801</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>256866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6981,7 +7037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7905,6 +7961,14 @@
         <v>299347</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>291976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,6 +1368,22 @@
         <v>9902289</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>10150878</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>10302767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1379,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,6 +2327,22 @@
         <v>10967328</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11050879</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>10649732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2322,7 +2354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,6 +3286,22 @@
         <v>3053215</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2897779</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2883157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3265,7 +3313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4197,6 +4245,22 @@
         <v>854700</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>834399</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>844863</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4208,7 +4272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5140,6 +5204,22 @@
         <v>1408656</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1401580</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1388186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5151,7 +5231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6083,6 +6163,22 @@
         <v>1696252</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1623538</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1617790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6094,7 +6190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7026,6 +7122,22 @@
         <v>256866</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>248493</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>251432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7037,7 +7149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7969,6 +8081,22 @@
         <v>291976</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>287046</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>286145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,6 +1384,14 @@
         <v>10302767</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>10668100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1395,7 +1403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,6 +2351,14 @@
         <v>10649732</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>10405253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2354,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3302,6 +3318,14 @@
         <v>2883157</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3018331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3313,7 +3337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4261,6 +4285,14 @@
         <v>844863</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>921812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4272,7 +4304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5220,6 +5252,14 @@
         <v>1388186</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1534497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5231,7 +5271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6179,6 +6219,14 @@
         <v>1617790</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1814542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6190,7 +6238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7138,6 +7186,14 @@
         <v>251432</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>253485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7149,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8097,6 +8153,14 @@
         <v>286145</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>294887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,6 +1392,22 @@
         <v>10668100</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>10608951</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1403,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2359,6 +2375,22 @@
         <v>10405253</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9646317</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2370,7 +2402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,6 +3358,22 @@
         <v>3018331</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3048473</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3337,7 +3385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,6 +4341,22 @@
         <v>921812</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>913355</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4304,7 +4368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5260,6 +5324,22 @@
         <v>1534497</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1490374</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5271,7 +5351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6227,6 +6307,22 @@
         <v>1814542</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1775925</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6238,7 +6334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7194,6 +7290,22 @@
         <v>253485</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>250227</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7205,7 +7317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8161,6 +8273,22 @@
         <v>294887</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>298827</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_1.xlsx
+++ b/r_list_1.xlsx
@@ -1405,7 +1405,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>10699906</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2388,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>8729392</v>
       </c>
     </row>
   </sheetData>
@@ -3371,7 +3371,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2914822</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4354,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>874615</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5337,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1530527</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6320,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1827245</v>
       </c>
     </row>
   </sheetData>
@@ -7303,7 +7303,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>242479</v>
       </c>
     </row>
   </sheetData>
@@ -8286,7 +8286,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>299549</v>
       </c>
     </row>
   </sheetData>
